--- a/target/classes/configfile/testData.xlsx
+++ b/target/classes/configfile/testData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HousingMan\eclipse-workspace\FlipkartPomDD\src\main\resources\configfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480B1901-F552-43AD-874D-4773F03D9E33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72972E5-D777-4546-BE8D-B100FF113313}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{3F98F14D-154F-4938-8298-748EB6362DA4}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>TestName</t>
   </si>
@@ -122,7 +122,10 @@
     <t>8553610403</t>
   </si>
   <si>
-    <t>f17890k</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>f1234567890k</t>
   </si>
 </sst>
 </file>
@@ -650,7 +653,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,7 +698,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -704,7 +707,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>27</v>

--- a/target/classes/configfile/testData.xlsx
+++ b/target/classes/configfile/testData.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HousingMan\eclipse-workspace\FlipkartPomDD\src\main\resources\configfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72972E5-D777-4546-BE8D-B100FF113313}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38CABEE-86B3-4051-9D43-7DEA90F60D9C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{3F98F14D-154F-4938-8298-748EB6362DA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3F98F14D-154F-4938-8298-748EB6362DA4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="TestScripts" sheetId="2" r:id="rId2"/>
-    <sheet name="LoginData" sheetId="3" r:id="rId3"/>
+    <sheet name="LoginData" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,76 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
-  <si>
-    <t>TestName</t>
-  </si>
-  <si>
-    <t>Test Comments</t>
-  </si>
-  <si>
-    <t>Test Steps</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Login1</t>
-  </si>
-  <si>
-    <t>Login2</t>
-  </si>
-  <si>
-    <t>Login3</t>
-  </si>
-  <si>
-    <t>Login Step1</t>
-  </si>
-  <si>
-    <t>Login Step2</t>
-  </si>
-  <si>
-    <t>Login Step3</t>
-  </si>
-  <si>
-    <t>Login Step4</t>
-  </si>
-  <si>
-    <t>Login Comments1</t>
-  </si>
-  <si>
-    <t>Login Comments2</t>
-  </si>
-  <si>
-    <t>Login Comments3</t>
-  </si>
-  <si>
-    <t>Login Comments4</t>
-  </si>
-  <si>
-    <t>Test Scripts</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>Add to cart</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>LoginTestDataStart</t>
   </si>
@@ -113,26 +42,26 @@
     <t>Y</t>
   </si>
   <si>
-    <t>floret.classifiedads5@gmail.com</t>
-  </si>
-  <si>
-    <t>70307134506</t>
-  </si>
-  <si>
-    <t>8553610403</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>f1234567890k</t>
+    <t>yourfilpkartemailid@gmail.com</t>
+  </si>
+  <si>
+    <t>filpkartpassword</t>
+  </si>
+  <si>
+    <t>yourfilpkartemailid1@gmail.com</t>
+  </si>
+  <si>
+    <t>yourfilpkartemailid2@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +73,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -187,17 +124,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -509,212 +448,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43F7330-CDD3-4396-BB1A-CA36E96EEC72}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59431E47-F845-4A6C-8908-E117EF93F0F6}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514EACA5-7362-47A6-9007-E921F60D040A}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" t="s">
-        <v>28</v>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" t="s">
-        <v>28</v>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3DECACF7-ADDA-4471-A13D-315531A0D966}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{C401C55E-6CBD-47F8-A2CB-DF8527EEA9A8}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{9AF0A465-2A39-42C5-9C48-0CD41001F985}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>